--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il12a-Il12rb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il12a-Il12rb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Il12rb1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.019271</v>
+      </c>
+      <c r="H2">
+        <v>0.057813</v>
+      </c>
+      <c r="I2">
+        <v>0.009412517461340836</v>
+      </c>
+      <c r="J2">
+        <v>0.009412517461340836</v>
+      </c>
+      <c r="K2">
         <v>3</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1.297418666666666</v>
-      </c>
-      <c r="H2">
-        <v>3.892256</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.162136</v>
+        <v>0.5699070000000001</v>
       </c>
       <c r="N2">
-        <v>0.486408</v>
+        <v>1.709721</v>
       </c>
       <c r="O2">
-        <v>0.0598694021675715</v>
+        <v>0.1475417602688563</v>
       </c>
       <c r="P2">
-        <v>0.05986940216757151</v>
+        <v>0.1475417602688563</v>
       </c>
       <c r="Q2">
-        <v>0.2103582729386666</v>
+        <v>0.010982677797</v>
       </c>
       <c r="R2">
-        <v>1.893224456448</v>
+        <v>0.09884410017300001</v>
       </c>
       <c r="S2">
-        <v>0.0598694021675715</v>
+        <v>0.001388739394807574</v>
       </c>
       <c r="T2">
-        <v>0.05986940216757151</v>
+        <v>0.001388739394807574</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.297418666666666</v>
+        <v>0.019271</v>
       </c>
       <c r="H3">
-        <v>3.892256</v>
+        <v>0.057813</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.009412517461340836</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.009412517461340836</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>1.694965</v>
       </c>
       <c r="N3">
-        <v>5.084894999999999</v>
+        <v>5.084895</v>
       </c>
       <c r="O3">
-        <v>0.6258729785177741</v>
+        <v>0.4388051378454766</v>
       </c>
       <c r="P3">
-        <v>0.6258729785177742</v>
+        <v>0.4388051378454766</v>
       </c>
       <c r="Q3">
-        <v>2.199079230346666</v>
+        <v>0.032663670515</v>
       </c>
       <c r="R3">
-        <v>19.79171307312</v>
+        <v>0.293973034635</v>
       </c>
       <c r="S3">
-        <v>0.6258729785177741</v>
+        <v>0.004130261022096621</v>
       </c>
       <c r="T3">
-        <v>0.6258729785177742</v>
+        <v>0.004130261022096621</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.297418666666666</v>
+        <v>0.019271</v>
       </c>
       <c r="H4">
-        <v>3.892256</v>
+        <v>0.057813</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.009412517461340836</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.009412517461340836</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,28 +679,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.153219</v>
+        <v>0.125128</v>
       </c>
       <c r="N4">
-        <v>0.459657</v>
+        <v>0.375384</v>
       </c>
       <c r="O4">
-        <v>0.05657676229038053</v>
+        <v>0.03239406671425592</v>
       </c>
       <c r="P4">
-        <v>0.05657676229038054</v>
+        <v>0.03239406671425593</v>
       </c>
       <c r="Q4">
-        <v>0.198789190688</v>
+        <v>0.002411341688</v>
       </c>
       <c r="R4">
-        <v>1.789102716192</v>
+        <v>0.021702075192</v>
       </c>
       <c r="S4">
-        <v>0.05657676229038053</v>
+        <v>0.0003049097185917738</v>
       </c>
       <c r="T4">
-        <v>0.05657676229038054</v>
+        <v>0.0003049097185917739</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.297418666666666</v>
+        <v>0.019271</v>
       </c>
       <c r="H5">
-        <v>3.892256</v>
+        <v>0.057813</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.009412517461340836</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.009412517461340836</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,276 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6978413333333333</v>
+        <v>1.472682666666667</v>
       </c>
       <c r="N5">
-        <v>2.093524</v>
+        <v>4.418048</v>
       </c>
       <c r="O5">
-        <v>0.2576808570242738</v>
+        <v>0.3812590351714111</v>
       </c>
       <c r="P5">
-        <v>0.2576808570242738</v>
+        <v>0.3812590351714111</v>
       </c>
       <c r="Q5">
-        <v>0.9053923722382221</v>
+        <v>0.02838006766933333</v>
       </c>
       <c r="R5">
-        <v>8.148531350143999</v>
+        <v>0.255420609024</v>
       </c>
       <c r="S5">
-        <v>0.2576808570242738</v>
+        <v>0.003588607325844866</v>
       </c>
       <c r="T5">
-        <v>0.2576808570242738</v>
+        <v>0.003588607325844866</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.028109</v>
+      </c>
+      <c r="H6">
+        <v>6.084327</v>
+      </c>
+      <c r="I6">
+        <v>0.9905874825386592</v>
+      </c>
+      <c r="J6">
+        <v>0.9905874825386591</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.5699070000000001</v>
+      </c>
+      <c r="N6">
+        <v>1.709721</v>
+      </c>
+      <c r="O6">
+        <v>0.1475417602688563</v>
+      </c>
+      <c r="P6">
+        <v>0.1475417602688563</v>
+      </c>
+      <c r="Q6">
+        <v>1.155833515863</v>
+      </c>
+      <c r="R6">
+        <v>10.402501642767</v>
+      </c>
+      <c r="S6">
+        <v>0.1461530208740488</v>
+      </c>
+      <c r="T6">
+        <v>0.1461530208740487</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.028109</v>
+      </c>
+      <c r="H7">
+        <v>6.084327</v>
+      </c>
+      <c r="I7">
+        <v>0.9905874825386592</v>
+      </c>
+      <c r="J7">
+        <v>0.9905874825386591</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.694965</v>
+      </c>
+      <c r="N7">
+        <v>5.084895</v>
+      </c>
+      <c r="O7">
+        <v>0.4388051378454766</v>
+      </c>
+      <c r="P7">
+        <v>0.4388051378454766</v>
+      </c>
+      <c r="Q7">
+        <v>3.437573771185</v>
+      </c>
+      <c r="R7">
+        <v>30.938163940665</v>
+      </c>
+      <c r="S7">
+        <v>0.4346748768233801</v>
+      </c>
+      <c r="T7">
+        <v>0.43467487682338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.028109</v>
+      </c>
+      <c r="H8">
+        <v>6.084327</v>
+      </c>
+      <c r="I8">
+        <v>0.9905874825386592</v>
+      </c>
+      <c r="J8">
+        <v>0.9905874825386591</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.125128</v>
+      </c>
+      <c r="N8">
+        <v>0.375384</v>
+      </c>
+      <c r="O8">
+        <v>0.03239406671425592</v>
+      </c>
+      <c r="P8">
+        <v>0.03239406671425593</v>
+      </c>
+      <c r="Q8">
+        <v>0.253773222952</v>
+      </c>
+      <c r="R8">
+        <v>2.283959006568</v>
+      </c>
+      <c r="S8">
+        <v>0.03208915699566416</v>
+      </c>
+      <c r="T8">
+        <v>0.03208915699566416</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.028109</v>
+      </c>
+      <c r="H9">
+        <v>6.084327</v>
+      </c>
+      <c r="I9">
+        <v>0.9905874825386592</v>
+      </c>
+      <c r="J9">
+        <v>0.9905874825386591</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.472682666666667</v>
+      </c>
+      <c r="N9">
+        <v>4.418048</v>
+      </c>
+      <c r="O9">
+        <v>0.3812590351714111</v>
+      </c>
+      <c r="P9">
+        <v>0.3812590351714111</v>
+      </c>
+      <c r="Q9">
+        <v>2.986760970410667</v>
+      </c>
+      <c r="R9">
+        <v>26.880848733696</v>
+      </c>
+      <c r="S9">
+        <v>0.3776704278455663</v>
+      </c>
+      <c r="T9">
+        <v>0.3776704278455662</v>
       </c>
     </row>
   </sheetData>
